--- a/output/0/tRNA-Cys-GCA-2-3.xlsx
+++ b/output/0/tRNA-Cys-GCA-2-3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>chr17</t>
   </si>
@@ -204,48 +204,6 @@
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>37310043</t>
-  </si>
-  <si>
-    <t>37310066</t>
-  </si>
-  <si>
-    <t>37310063</t>
-  </si>
-  <si>
-    <t>CTGAGCTATACCCCCTCTGC</t>
-  </si>
-  <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>37310397</t>
-  </si>
-  <si>
-    <t>37310420</t>
-  </si>
-  <si>
-    <t>37310400</t>
-  </si>
-  <si>
-    <t>CTGGGCTGGGGAAGACAGGT</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>63</t>
   </si>
 </sst>
 </file>
@@ -290,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -709,124 +667,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
